--- a/assets/img/2024-07-01-Omnissa-poc/Omnissa-success-criteria.xlsx
+++ b/assets/img/2024-07-01-Omnissa-poc/Omnissa-success-criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbeaugrand/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbeaugrand/github/blog/assets/img/2024-07-01-Omnissa-poc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F536A125-62F8-774B-B1A9-28E2E59D3D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C41C5-6EA7-7A4D-90D1-3F043025D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="861" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14480" yWindow="-21000" windowWidth="38400" windowHeight="21000" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="47" r:id="rId1"/>
@@ -495,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,9 +833,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -843,15 +840,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,9 +860,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -895,12 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -916,18 +895,39 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="99">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1583,7 +1583,7 @@
   </sheetPr>
   <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
@@ -1596,8 +1596,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55"/>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1"/>
@@ -1637,21 +1637,21 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:37" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="16"/>
@@ -1751,10 +1751,10 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:37" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1771,10 +1771,10 @@
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1791,8 +1791,8 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="215" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2617,7 +2617,7 @@
   <dimension ref="A1:AM137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2630,10 +2630,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="62" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="22"/>
@@ -2672,26 +2672,26 @@
       <c r="AL1" s="22"/>
     </row>
     <row r="2" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3015,12 +3015,12 @@
       <c r="AM10" s="24"/>
     </row>
     <row r="11" spans="1:39" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3221,10 +3221,10 @@
       <c r="AM15" s="24"/>
     </row>
     <row r="16" spans="1:39" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -3262,10 +3262,10 @@
       <c r="AM16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -3281,9 +3281,9 @@
       <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="32"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -4575,24 +4575,24 @@
   </sheetPr>
   <dimension ref="A1:AN138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" style="8" customWidth="1"/>
     <col min="2" max="3" width="60.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="35" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="63" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="1"/>
@@ -4632,16 +4632,16 @@
       <c r="AM1" s="1"/>
     </row>
     <row r="2" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="35"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="35"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="35"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="35"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="35"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="35"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="35"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="35"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="35"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="35"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="35"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="35"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="35"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="35"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="35"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="35"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="35"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:40" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="35"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="35"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="35"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="35"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="35"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="35"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="35"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="35"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="35"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="35"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="35"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="35"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="35"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="35"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="35"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
-      <c r="D56" s="35"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
-      <c r="D58" s="35"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="35"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="35"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="35"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="35"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="35"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="35"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="35"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="35"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -6129,10 +6129,10 @@
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="40"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -6149,10 +6149,10 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -6189,7 +6189,7 @@
       <c r="A72" s="15"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="37"/>
+      <c r="D72" s="36"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -6208,7 +6208,7 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
-      <c r="D73" s="37"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -6227,7 +6227,7 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6246,7 +6246,7 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
-      <c r="D75" s="37"/>
+      <c r="D75" s="36"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -6265,7 +6265,7 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="37"/>
+      <c r="D76" s="36"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -6284,7 +6284,7 @@
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="37"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -6303,7 +6303,7 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="37"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -6322,7 +6322,7 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="37"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -6341,7 +6341,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="37"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -6360,7 +6360,7 @@
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="37"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -6379,7 +6379,7 @@
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="37"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -6398,7 +6398,7 @@
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
-      <c r="D83" s="37"/>
+      <c r="D83" s="36"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -6417,7 +6417,7 @@
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="37"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -6436,7 +6436,7 @@
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
-      <c r="D85" s="37"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -6455,7 +6455,7 @@
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="37"/>
+      <c r="D86" s="36"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -6474,7 +6474,7 @@
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
-      <c r="D87" s="37"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -6493,7 +6493,7 @@
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="37"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -6512,7 +6512,7 @@
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
-      <c r="D89" s="37"/>
+      <c r="D89" s="36"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -6531,7 +6531,7 @@
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="37"/>
+      <c r="D90" s="36"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -6550,7 +6550,7 @@
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
-      <c r="D91" s="37"/>
+      <c r="D91" s="36"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -6569,7 +6569,7 @@
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
-      <c r="D92" s="37"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -6588,7 +6588,7 @@
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
-      <c r="D93" s="37"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -6607,7 +6607,7 @@
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
-      <c r="D94" s="37"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -6626,7 +6626,7 @@
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
-      <c r="D95" s="37"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -6645,7 +6645,7 @@
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
-      <c r="D96" s="37"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -6664,7 +6664,7 @@
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
-      <c r="D97" s="37"/>
+      <c r="D97" s="36"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -6683,7 +6683,7 @@
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="37"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -6702,7 +6702,7 @@
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
-      <c r="D99" s="37"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -6721,7 +6721,7 @@
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="37"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -6740,7 +6740,7 @@
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
-      <c r="D101" s="37"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -6759,7 +6759,7 @@
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
-      <c r="D102" s="37"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -6778,7 +6778,7 @@
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
-      <c r="D103" s="37"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -6797,7 +6797,7 @@
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
-      <c r="D104" s="37"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -6816,7 +6816,7 @@
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
-      <c r="D105" s="37"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -6835,7 +6835,7 @@
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
-      <c r="D106" s="37"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -6854,7 +6854,7 @@
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
-      <c r="D107" s="37"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -6873,7 +6873,7 @@
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
-      <c r="D108" s="37"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -6892,7 +6892,7 @@
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
-      <c r="D109" s="37"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -6911,7 +6911,7 @@
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="37"/>
+      <c r="D110" s="36"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -6930,7 +6930,7 @@
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="37"/>
+      <c r="D111" s="36"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -6949,7 +6949,7 @@
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
-      <c r="D112" s="37"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -6968,132 +6968,132 @@
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
-      <c r="D113" s="37"/>
+      <c r="D113" s="36"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
-      <c r="D114" s="37"/>
+      <c r="D114" s="36"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
-      <c r="D115" s="37"/>
+      <c r="D115" s="36"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
-      <c r="D116" s="37"/>
+      <c r="D116" s="36"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="37"/>
+      <c r="D117" s="36"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
-      <c r="D118" s="37"/>
+      <c r="D118" s="36"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
-      <c r="D119" s="37"/>
+      <c r="D119" s="36"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="37"/>
+      <c r="D120" s="36"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
-      <c r="D121" s="37"/>
+      <c r="D121" s="36"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
-      <c r="D122" s="37"/>
+      <c r="D122" s="36"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
-      <c r="D123" s="37"/>
+      <c r="D123" s="36"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
-      <c r="D124" s="37"/>
+      <c r="D124" s="36"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
-      <c r="D125" s="37"/>
+      <c r="D125" s="36"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
-      <c r="D126" s="37"/>
+      <c r="D126" s="36"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
-      <c r="D127" s="37"/>
+      <c r="D127" s="36"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
-      <c r="D128" s="37"/>
+      <c r="D128" s="36"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
-      <c r="D129" s="37"/>
+      <c r="D129" s="36"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
-      <c r="D130" s="37"/>
+      <c r="D130" s="36"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="37"/>
+      <c r="D131" s="36"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="37"/>
+      <c r="D132" s="36"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
-      <c r="D133" s="37"/>
+      <c r="D133" s="36"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
-      <c r="D134" s="37"/>
+      <c r="D134" s="36"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
-      <c r="D135" s="37"/>
+      <c r="D135" s="36"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
-      <c r="D136" s="37"/>
+      <c r="D136" s="36"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
-      <c r="D137" s="37"/>
+      <c r="D137" s="36"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
-      <c r="D138" s="37"/>
+      <c r="D138" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7123,6 +7123,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a3f86f60-5163-4434-ba4a-73f68b170085" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3cdee01-5911-4841-93a2-01f79d1ce2bf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007109CA6D1BBE11448D524EF4021B9A18" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a2dcb2384401c582d81c97af0274d8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3cdee01-5911-4841-93a2-01f79d1ce2bf" xmlns:ns3="a3f86f60-5163-4434-ba4a-73f68b170085" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35f524b1b6305ae5c99c00bf07bfe9fe" ns2:_="" ns3:_="">
     <xsd:import namespace="d3cdee01-5911-4841-93a2-01f79d1ce2bf"/>
@@ -7329,54 +7349,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a3f86f60-5163-4434-ba4a-73f68b170085" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3cdee01-5911-4841-93a2-01f79d1ce2bf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C638C731-6A9D-4DDE-AA13-00C053643AA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d3cdee01-5911-4841-93a2-01f79d1ce2bf"/>
-    <ds:schemaRef ds:uri="a3f86f60-5163-4434-ba4a-73f68b170085"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF5CF93-F330-4D34-8EA3-3A4319739D9D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A20D01FA-78BD-4420-BAF6-4011C2F707E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -7394,4 +7367,31 @@
     <ds:schemaRef ds:uri="d3cdee01-5911-4841-93a2-01f79d1ce2bf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF5CF93-F330-4D34-8EA3-3A4319739D9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C638C731-6A9D-4DDE-AA13-00C053643AA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d3cdee01-5911-4841-93a2-01f79d1ce2bf"/>
+    <ds:schemaRef ds:uri="a3f86f60-5163-4434-ba4a-73f68b170085"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>